--- a/MijnPythonScripts/Replication_201411.xlsx
+++ b/MijnPythonScripts/Replication_201411.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27000" yWindow="480" windowWidth="21330" windowHeight="12330"/>
+    <workbookView xWindow="4500" yWindow="460" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -363,36 +366,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -404,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,9 +425,10 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
@@ -725,79 +729,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BP1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:88">
+      <c r="A1" s="17">
+        <v>41944</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1054,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1312,7 +1318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -1840,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -2102,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>-5553478.5</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -2630,7 +2636,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
@@ -2892,7 +2898,7 @@
         <v>6.9673586639999989</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88">
       <c r="A9" s="4" t="s">
         <v>90</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -3420,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
@@ -3684,31 +3690,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>